--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_3_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2609970.914543567</v>
+        <v>2608276.056309675</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1287228.184107714</v>
+        <v>1287228.184107715</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>65.5944526828373</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>186.0850531309659</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
@@ -738,28 +738,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50.16678928893436</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>74.57966455559024</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,64 +899,64 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>227.5210474355602</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>51.51867270495128</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>93.26912801052356</v>
       </c>
       <c r="X6" t="n">
-        <v>145.1806198985548</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1066,49 +1066,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,61 +1142,61 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
-        <v>40.47627913313511</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
+        <v>222.1008216780093</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="Y9" t="n">
-        <v>145.1806198985548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1300,43 +1300,43 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.779571414954</v>
+        <v>357.7795714149541</v>
       </c>
       <c r="C11" t="n">
-        <v>340.318621522481</v>
+        <v>340.3186215224811</v>
       </c>
       <c r="D11" t="n">
-        <v>329.7287713721564</v>
+        <v>329.7287713721565</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>356.9760998237354</v>
       </c>
       <c r="F11" t="n">
-        <v>381.9217754931849</v>
+        <v>381.921775493185</v>
       </c>
       <c r="G11" t="n">
-        <v>199.5755926243726</v>
+        <v>173.2624404754164</v>
       </c>
       <c r="H11" t="n">
-        <v>290.4347245022872</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>94.85220997855048</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.4731875638751</v>
+        <v>130.4731875638752</v>
       </c>
       <c r="T11" t="n">
-        <v>187.8463886171956</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>226.2032352564837</v>
       </c>
       <c r="V11" t="n">
-        <v>302.7979882216084</v>
+        <v>302.7979882216085</v>
       </c>
       <c r="W11" t="n">
-        <v>324.2866984688865</v>
+        <v>324.2866984688866</v>
       </c>
       <c r="X11" t="n">
-        <v>344.7768304299425</v>
+        <v>344.7768304299426</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.283668407527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I12" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S12" t="n">
         <v>148.3099331995005</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>142.2925508501014</v>
       </c>
       <c r="D13" t="n">
-        <v>77.00186716310499</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>127.8933879574562</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>104.9044813177992</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>180.67732889694</v>
       </c>
       <c r="T13" t="n">
-        <v>198.4837816320201</v>
+        <v>198.4837816320202</v>
       </c>
       <c r="U13" t="n">
-        <v>261.3072160754401</v>
+        <v>261.3072160754402</v>
       </c>
       <c r="V13" t="n">
-        <v>227.1833730753015</v>
+        <v>227.1833730753016</v>
       </c>
       <c r="W13" t="n">
-        <v>261.5687280880645</v>
+        <v>38.58962214378351</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>272.5843984203441</v>
+        <v>357.7795714149541</v>
       </c>
       <c r="C14" t="n">
-        <v>340.318621522481</v>
+        <v>340.3186215224811</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>356.9760998237352</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>381.9217754931849</v>
+        <v>297.0262795019524</v>
       </c>
       <c r="G14" t="n">
-        <v>387.996624731278</v>
+        <v>387.9966247312781</v>
       </c>
       <c r="H14" t="n">
         <v>290.4347245022872</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.4731875638752</v>
       </c>
       <c r="T14" t="n">
-        <v>187.8463886171956</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>226.2032352564836</v>
       </c>
       <c r="V14" t="n">
         <v>302.7979882216084</v>
@@ -1673,7 +1673,7 @@
         <v>344.7768304299425</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.283668407527</v>
+        <v>361.2836684075271</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I15" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.02995793686993</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S15" t="n">
         <v>148.3099331995005</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>154.8777099334108</v>
       </c>
       <c r="C16" t="n">
-        <v>4.139869980050474</v>
+        <v>142.2925508501014</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>47.81403002707</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>121.4796923980427</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>198.4837816320201</v>
+        <v>198.4837816320202</v>
       </c>
       <c r="U16" t="n">
         <v>261.3072160754401</v>
@@ -1825,10 +1825,10 @@
         <v>227.1833730753015</v>
       </c>
       <c r="W16" t="n">
-        <v>261.5687280880645</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>200.7553851405106</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>232.6712193579089</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417213</v>
+        <v>37.08870483417208</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.70968241949684</v>
+        <v>72.7096824194968</v>
       </c>
       <c r="T17" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U17" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121052</v>
       </c>
       <c r="V17" t="n">
         <v>245.0344830772301</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.02995793686993</v>
+        <v>22.02995793686992</v>
       </c>
       <c r="S18" t="n">
         <v>148.3099331995005</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.11420478903251</v>
+        <v>97.11420478903248</v>
       </c>
       <c r="C19" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572302</v>
       </c>
       <c r="D19" t="n">
-        <v>65.89769762530757</v>
+        <v>65.89769762530754</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366439</v>
+        <v>63.71618725366436</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70327263002646</v>
+        <v>58.56079076600562</v>
       </c>
       <c r="G19" t="n">
-        <v>84.2182483692756</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>70.129882813078</v>
+        <v>70.12988281307794</v>
       </c>
       <c r="I19" t="n">
-        <v>41.00730760263663</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342077</v>
       </c>
       <c r="S19" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T19" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U19" t="n">
         <v>203.5437109310618</v>
@@ -2065,7 +2065,7 @@
         <v>203.8052229436862</v>
       </c>
       <c r="X19" t="n">
-        <v>13.6238421601982</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y19" t="n">
         <v>135.86687795919</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.0160662705757</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C20" t="n">
-        <v>282.5551163781027</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D20" t="n">
-        <v>271.9652662277781</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E20" t="n">
-        <v>299.2125946793569</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F20" t="n">
         <v>324.1582703488066</v>
       </c>
       <c r="G20" t="n">
-        <v>330.2331195868997</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H20" t="n">
         <v>232.6712193579089</v>
       </c>
       <c r="I20" t="n">
-        <v>37.08870483417208</v>
+        <v>37.08870483417211</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.70968241949679</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T20" t="n">
         <v>130.0828834728173</v>
       </c>
       <c r="U20" t="n">
-        <v>168.4397301121052</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V20" t="n">
-        <v>245.03448307723</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W20" t="n">
         <v>266.5231933245082</v>
@@ -2147,7 +2147,7 @@
         <v>287.0133252855642</v>
       </c>
       <c r="Y20" t="n">
-        <v>303.5201632631487</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.02995793686993</v>
+        <v>22.02995793686992</v>
       </c>
       <c r="S21" t="n">
         <v>148.3099331995005</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.11420478903246</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C22" t="n">
-        <v>84.52904570572299</v>
+        <v>84.52904570572305</v>
       </c>
       <c r="D22" t="n">
-        <v>65.89769762530752</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E22" t="n">
-        <v>63.71618725366433</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F22" t="n">
-        <v>62.7032726300264</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>84.21824836927554</v>
+        <v>84.2182483692756</v>
       </c>
       <c r="H22" t="n">
-        <v>70.12988281307794</v>
+        <v>70.12988281307797</v>
       </c>
       <c r="I22" t="n">
-        <v>41.00730760263657</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.14097617342075</v>
+        <v>47.14097617342078</v>
       </c>
       <c r="S22" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T22" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U22" t="n">
         <v>203.5437109310618</v>
       </c>
       <c r="V22" t="n">
-        <v>40.05183009499036</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W22" t="n">
-        <v>203.8052229436861</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X22" t="n">
-        <v>142.9918799961323</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y22" t="n">
-        <v>135.8668779591899</v>
+        <v>110.209420355918</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.0160662705757</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C23" t="n">
-        <v>282.5551163781027</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D23" t="n">
-        <v>271.9652662277781</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E23" t="n">
-        <v>299.2125946793569</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F23" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G23" t="n">
-        <v>330.2331195868997</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H23" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I23" t="n">
-        <v>37.08870483417208</v>
+        <v>37.08870483417218</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.70968241949679</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U23" t="n">
-        <v>168.4397301121052</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V23" t="n">
-        <v>245.03448307723</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W23" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X23" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y23" t="n">
-        <v>303.5201632631487</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.02995793686993</v>
+        <v>22.02995793686992</v>
       </c>
       <c r="S24" t="n">
         <v>148.3099331995005</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.11420478903246</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C25" t="n">
-        <v>84.52904570572299</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.89769762530752</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E25" t="n">
-        <v>63.71618725366433</v>
+        <v>59.88450272608856</v>
       </c>
       <c r="F25" t="n">
-        <v>62.7032726300264</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G25" t="n">
-        <v>84.21824836927554</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H25" t="n">
-        <v>70.12988281307794</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I25" t="n">
-        <v>41.00730760263657</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.14097617342075</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S25" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T25" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U25" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V25" t="n">
-        <v>40.05183009499059</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W25" t="n">
-        <v>203.8052229436861</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X25" t="n">
-        <v>142.9918799961323</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.8668779591899</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2564,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F26" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G26" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H26" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I26" t="n">
-        <v>37.08870483417218</v>
+        <v>37.08870483417211</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>72.70968241949689</v>
+        <v>72.70968241949683</v>
       </c>
       <c r="T26" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U26" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V26" t="n">
-        <v>245.0344830772302</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W26" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X26" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y26" t="n">
         <v>303.5201632631488</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.02995793686993</v>
+        <v>22.02995793686992</v>
       </c>
       <c r="S27" t="n">
         <v>148.3099331995005</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.11420478903256</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>80.3865638417012</v>
       </c>
       <c r="D28" t="n">
-        <v>21.05870549509513</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E28" t="n">
-        <v>63.71618725366443</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F28" t="n">
-        <v>62.7032726300265</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G28" t="n">
-        <v>84.21824836927564</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>70.12988281307803</v>
+        <v>70.12988281307797</v>
       </c>
       <c r="I28" t="n">
-        <v>41.00730760263667</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.14097617342085</v>
+        <v>47.14097617342078</v>
       </c>
       <c r="S28" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T28" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U28" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V28" t="n">
-        <v>169.4198679309233</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W28" t="n">
-        <v>203.8052229436863</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X28" t="n">
         <v>142.9918799961324</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>300.0160662705759</v>
+        <v>300.0160662705758</v>
       </c>
       <c r="C29" t="n">
         <v>282.5551163781029</v>
       </c>
       <c r="D29" t="n">
-        <v>271.9652662277783</v>
+        <v>271.9652662277782</v>
       </c>
       <c r="E29" t="n">
-        <v>299.2125946793572</v>
+        <v>299.212594679357</v>
       </c>
       <c r="F29" t="n">
-        <v>324.1582703488068</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G29" t="n">
         <v>330.2331195868999</v>
       </c>
       <c r="H29" t="n">
-        <v>232.6712193579091</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I29" t="n">
-        <v>37.08870483417223</v>
+        <v>37.08870483417218</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>72.70968241949517</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T29" t="n">
-        <v>130.0828834728175</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U29" t="n">
-        <v>168.4397301121054</v>
+        <v>168.4397301121053</v>
       </c>
       <c r="V29" t="n">
         <v>245.0344830772302</v>
       </c>
       <c r="W29" t="n">
-        <v>266.5231933245084</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X29" t="n">
-        <v>287.0133252855644</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y29" t="n">
         <v>303.5201632631489</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.11420478903264</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D31" t="n">
-        <v>65.8976976253077</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E31" t="n">
-        <v>63.71618725366451</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F31" t="n">
-        <v>62.70327263002659</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G31" t="n">
-        <v>84.21824836927573</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H31" t="n">
-        <v>70.12988281307811</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I31" t="n">
-        <v>41.00730760263674</v>
+        <v>34.55309351926242</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2.301984043207019</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9138237525618</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>140.720276487642</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U31" t="n">
-        <v>203.543710931062</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V31" t="n">
         <v>169.4198679309233</v>
@@ -3013,7 +3013,7 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X31" t="n">
-        <v>142.9918799961325</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y31" t="n">
         <v>135.8668779591901</v>
@@ -3202,10 +3202,10 @@
         <v>84.2182483692756</v>
       </c>
       <c r="H34" t="n">
-        <v>70.12988281307797</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.00730760263662</v>
+        <v>28.91012875320149</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.14097617342078</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>122.9138237525617</v>
@@ -3250,7 +3250,7 @@
         <v>203.8052229436862</v>
       </c>
       <c r="X34" t="n">
-        <v>13.62384216019822</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y34" t="n">
         <v>135.86687795919</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11420478903251</v>
+        <v>37.87604976617608</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>84.52904570572305</v>
       </c>
       <c r="D37" t="n">
         <v>65.89769762530757</v>
@@ -3433,13 +3433,13 @@
         <v>63.71618725366439</v>
       </c>
       <c r="F37" t="n">
-        <v>17.86428049981554</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G37" t="n">
         <v>84.2182483692756</v>
       </c>
       <c r="H37" t="n">
-        <v>70.12988281307797</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>41.00730760263662</v>
@@ -3503,7 +3503,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C38" t="n">
-        <v>282.5551163781029</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D38" t="n">
         <v>271.9652662277782</v>
@@ -3512,16 +3512,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F38" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G38" t="n">
-        <v>330.2331195868999</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H38" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I38" t="n">
-        <v>37.08870483417218</v>
+        <v>37.08870483417211</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70968241949691</v>
+        <v>72.70968241949684</v>
       </c>
       <c r="T38" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U38" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V38" t="n">
-        <v>245.0344830772302</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W38" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X38" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y38" t="n">
-        <v>303.5201632631489</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.11420478903258</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>84.52904570572305</v>
       </c>
       <c r="D40" t="n">
-        <v>65.89769762530764</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E40" t="n">
-        <v>63.71618725366446</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70327263002653</v>
+        <v>44.47242520980696</v>
       </c>
       <c r="G40" t="n">
-        <v>84.21824836927567</v>
+        <v>84.2182483692756</v>
       </c>
       <c r="H40" t="n">
-        <v>70.12988281307804</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.00730760263669</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.14097617342085</v>
+        <v>47.14097617342078</v>
       </c>
       <c r="S40" t="n">
-        <v>78.07483162234939</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T40" t="n">
         <v>140.7202764876419</v>
       </c>
       <c r="U40" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V40" t="n">
-        <v>169.4198679309233</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W40" t="n">
-        <v>203.8052229436863</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X40" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.8668779591901</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>324.1582703488067</v>
       </c>
       <c r="G41" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H41" t="n">
         <v>232.671219357909</v>
@@ -3898,7 +3898,7 @@
         <v>97.11420478903258</v>
       </c>
       <c r="C43" t="n">
-        <v>84.52904570572312</v>
+        <v>17.86428049981407</v>
       </c>
       <c r="D43" t="n">
         <v>65.89769762530764</v>
@@ -3907,13 +3907,13 @@
         <v>63.71618725366446</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70327263002653</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>84.21824836927567</v>
       </c>
       <c r="H43" t="n">
-        <v>70.12988281307805</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I43" t="n">
         <v>41.00730760263669</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.14097617342087</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S43" t="n">
         <v>122.9138237525617</v>
@@ -3961,7 +3961,7 @@
         <v>203.8052229436863</v>
       </c>
       <c r="X43" t="n">
-        <v>13.62384216019708</v>
+        <v>142.9918799961324</v>
       </c>
       <c r="Y43" t="n">
         <v>135.8668779591901</v>
@@ -3977,7 +3977,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C44" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D44" t="n">
         <v>271.9652662277782</v>
@@ -3986,16 +3986,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F44" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G44" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H44" t="n">
-        <v>232.6712193579089</v>
+        <v>232.6712193579081</v>
       </c>
       <c r="I44" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417218</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T44" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U44" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V44" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W44" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X44" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.11420478903251</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C46" t="n">
-        <v>18.87719512345406</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D46" t="n">
-        <v>65.89769762530757</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F46" t="n">
-        <v>62.70327263002646</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>84.2182483692756</v>
+        <v>58.56079076600292</v>
       </c>
       <c r="H46" t="n">
-        <v>70.12988281307797</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I46" t="n">
-        <v>41.00730760263662</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.14097617342078</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S46" t="n">
         <v>122.9138237525617</v>
@@ -4189,19 +4189,19 @@
         <v>140.7202764876419</v>
       </c>
       <c r="U46" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V46" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W46" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X46" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>97.60815526925295</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>766.0008400101203</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>540.6514970160482</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>297.2027203719481</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>53.75394372784808</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W2" t="n">
-        <v>53.75394372784808</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X2" t="n">
-        <v>53.75394372784808</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>547.0914794406409</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="C3" t="n">
-        <v>372.6384501595139</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4413,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>888.72416101004</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>715.3068164607089</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>715.3068164607089</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>715.3068164607089</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>715.3068164607089</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>715.3068164607089</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X3" t="n">
-        <v>715.3068164607089</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y3" t="n">
-        <v>715.3068164607089</v>
+        <v>238.1700046645579</v>
       </c>
     </row>
     <row r="4">
@@ -4510,19 +4510,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>333.7844730889342</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>90.33569644483418</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>90.33569644483418</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
-        <v>83.39019569563071</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>649.1947276839472</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="C6" t="n">
-        <v>474.7416984028202</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="D6" t="n">
-        <v>325.807288741569</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E6" t="n">
-        <v>166.5698337361135</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="X6" t="n">
-        <v>817.4100647040152</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.4100647040152</v>
+        <v>305.3006591534979</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4756,19 +4756,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6850394389064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E8" t="n">
-        <v>315.6850394389064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F8" t="n">
-        <v>72.23626279480629</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V8" t="n">
-        <v>559.1338160830064</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="W8" t="n">
-        <v>315.6850394389064</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="X8" t="n">
-        <v>315.6850394389064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.6850394389064</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>649.1947276839472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>474.7416984028202</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>817.4100647040152</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4984,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1630.761051512021</v>
+        <v>1767.205933482771</v>
       </c>
       <c r="C11" t="n">
-        <v>1287.00486815598</v>
+        <v>1423.44975012673</v>
       </c>
       <c r="D11" t="n">
-        <v>953.9455031335992</v>
+        <v>1090.390385104349</v>
       </c>
       <c r="E11" t="n">
-        <v>953.9455031335992</v>
+        <v>729.8084660904751</v>
       </c>
       <c r="F11" t="n">
-        <v>568.1659319283617</v>
+        <v>344.0288948852376</v>
       </c>
       <c r="G11" t="n">
-        <v>366.5744242269747</v>
+        <v>169.0163287484528</v>
       </c>
       <c r="H11" t="n">
-        <v>73.20601563880585</v>
+        <v>169.0163287484528</v>
       </c>
       <c r="I11" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J11" t="n">
-        <v>258.9898176069159</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K11" t="n">
-        <v>658.1763815223496</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L11" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M11" t="n">
         <v>1831.488208231171</v>
@@ -5054,16 +5054,16 @@
         <v>2452.791422191916</v>
       </c>
       <c r="O11" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P11" t="n">
         <v>3418.758763931392</v>
       </c>
       <c r="Q11" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R11" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S11" t="n">
         <v>3528.509683390924</v>
@@ -5072,19 +5072,19 @@
         <v>3338.765856504868</v>
       </c>
       <c r="U11" t="n">
-        <v>3338.765856504868</v>
+        <v>3110.277740084177</v>
       </c>
       <c r="V11" t="n">
-        <v>3032.909302745667</v>
+        <v>2804.421186324977</v>
       </c>
       <c r="W11" t="n">
-        <v>2705.346981059924</v>
+        <v>2476.858864639233</v>
       </c>
       <c r="X11" t="n">
-        <v>2357.087556383214</v>
+        <v>2128.599439962523</v>
       </c>
       <c r="Y11" t="n">
-        <v>1992.154557991772</v>
+        <v>2128.599439962523</v>
       </c>
     </row>
     <row r="12">
@@ -5106,10 +5106,10 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G12" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H12" t="n">
         <v>119.7433661394903</v>
@@ -5118,22 +5118,22 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J12" t="n">
-        <v>190.1641956615502</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K12" t="n">
-        <v>254.8646126176073</v>
+        <v>254.8646126176074</v>
       </c>
       <c r="L12" t="n">
-        <v>388.1848488975574</v>
+        <v>755.3167907479822</v>
       </c>
       <c r="M12" t="n">
-        <v>1024.16815761173</v>
+        <v>930.2520863496545</v>
       </c>
       <c r="N12" t="n">
-        <v>1692.691065467626</v>
+        <v>1598.774994205551</v>
       </c>
       <c r="O12" t="n">
-        <v>2237.843241353387</v>
+        <v>2143.927170091313</v>
       </c>
       <c r="P12" t="n">
         <v>2429.521278084463</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>280.1709198009891</v>
+        <v>216.9358649823427</v>
       </c>
       <c r="C13" t="n">
-        <v>280.1709198009891</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="D13" t="n">
-        <v>202.3912559998729</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="E13" t="n">
-        <v>202.3912559998729</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="F13" t="n">
-        <v>202.3912559998729</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3912559998729</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="H13" t="n">
         <v>73.20601563880585</v>
@@ -5197,52 +5197,52 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J13" t="n">
-        <v>79.32466191965315</v>
+        <v>79.32466191965308</v>
       </c>
       <c r="K13" t="n">
-        <v>203.3235852420088</v>
+        <v>203.3235852420086</v>
       </c>
       <c r="L13" t="n">
-        <v>410.6171321895918</v>
+        <v>410.6171321895912</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475071</v>
+        <v>638.2252920475065</v>
       </c>
       <c r="N13" t="n">
-        <v>866.4434782183694</v>
+        <v>866.4434782183687</v>
       </c>
       <c r="O13" t="n">
-        <v>1063.109528897735</v>
+        <v>1063.109528897734</v>
       </c>
       <c r="P13" t="n">
-        <v>1211.436193392008</v>
+        <v>1211.436193392007</v>
       </c>
       <c r="Q13" t="n">
-        <v>1238.295262094753</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="R13" t="n">
-        <v>1238.295262094753</v>
+        <v>1132.33113955152</v>
       </c>
       <c r="S13" t="n">
-        <v>1238.295262094753</v>
+        <v>949.8287871303686</v>
       </c>
       <c r="T13" t="n">
-        <v>1037.806593779581</v>
+        <v>749.3401188151967</v>
       </c>
       <c r="U13" t="n">
-        <v>773.859910875096</v>
+        <v>485.3934359107114</v>
       </c>
       <c r="V13" t="n">
-        <v>544.3817562535794</v>
+        <v>255.9152812891947</v>
       </c>
       <c r="W13" t="n">
-        <v>280.1709198009891</v>
+        <v>216.9358649823427</v>
       </c>
       <c r="X13" t="n">
-        <v>280.1709198009891</v>
+        <v>216.9358649823427</v>
       </c>
       <c r="Y13" t="n">
-        <v>280.1709198009891</v>
+        <v>216.9358649823427</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1848.607880358974</v>
+        <v>1402.27293509133</v>
       </c>
       <c r="C14" t="n">
-        <v>1504.851697002933</v>
+        <v>1058.516751735288</v>
       </c>
       <c r="D14" t="n">
-        <v>1504.851697002933</v>
+        <v>1058.516751735288</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.269777989059</v>
+        <v>1058.516751735288</v>
       </c>
       <c r="F14" t="n">
         <v>758.4902067838213</v>
@@ -5270,19 +5270,19 @@
         <v>366.5744242269748</v>
       </c>
       <c r="H14" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I14" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J14" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K14" t="n">
-        <v>658.1763815223497</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L14" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M14" t="n">
         <v>1831.488208231171</v>
@@ -5297,31 +5297,31 @@
         <v>3418.758763931392</v>
       </c>
       <c r="Q14" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R14" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S14" t="n">
-        <v>3660.300781940292</v>
+        <v>3528.509683390924</v>
       </c>
       <c r="T14" t="n">
-        <v>3470.556955054236</v>
+        <v>3338.765856504868</v>
       </c>
       <c r="U14" t="n">
-        <v>3470.556955054236</v>
+        <v>3110.277740084177</v>
       </c>
       <c r="V14" t="n">
-        <v>3164.700401295036</v>
+        <v>2804.421186324977</v>
       </c>
       <c r="W14" t="n">
-        <v>2837.138079609292</v>
+        <v>2476.858864639233</v>
       </c>
       <c r="X14" t="n">
-        <v>2488.878654932582</v>
+        <v>2128.599439962523</v>
       </c>
       <c r="Y14" t="n">
-        <v>2123.94565654114</v>
+        <v>1763.666441571082</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I15" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J15" t="n">
-        <v>190.1641956615502</v>
+        <v>183.3318001604861</v>
       </c>
       <c r="K15" t="n">
-        <v>516.68519726006</v>
+        <v>509.8528017589961</v>
       </c>
       <c r="L15" t="n">
-        <v>650.00543354001</v>
+        <v>1010.304979889371</v>
       </c>
       <c r="M15" t="n">
-        <v>1285.988742254182</v>
+        <v>1185.240275491043</v>
       </c>
       <c r="N15" t="n">
-        <v>1954.511650110078</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O15" t="n">
-        <v>2499.66382599584</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P15" t="n">
-        <v>2604.915299978026</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.936419551312</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.38770248734167</v>
+        <v>387.9396250077091</v>
       </c>
       <c r="C16" t="n">
-        <v>73.20601563880584</v>
+        <v>244.2097756641723</v>
       </c>
       <c r="D16" t="n">
-        <v>73.20601563880584</v>
+        <v>195.9127756368288</v>
       </c>
       <c r="E16" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="F16" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="G16" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="H16" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I16" t="n">
-        <v>73.20601563880584</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="J16" t="n">
-        <v>79.32466191965318</v>
+        <v>79.3246619196531</v>
       </c>
       <c r="K16" t="n">
-        <v>203.3235852420088</v>
+        <v>203.3235852420087</v>
       </c>
       <c r="L16" t="n">
-        <v>410.6171321895915</v>
+        <v>410.6171321895914</v>
       </c>
       <c r="M16" t="n">
-        <v>638.2252920475067</v>
+        <v>638.2252920475066</v>
       </c>
       <c r="N16" t="n">
-        <v>866.443478218369</v>
+        <v>866.4434782183689</v>
       </c>
       <c r="O16" t="n">
         <v>1063.109528897735</v>
@@ -5467,19 +5467,19 @@
         <v>1037.80659377958</v>
       </c>
       <c r="U16" t="n">
-        <v>773.8599108750955</v>
+        <v>773.8599108750952</v>
       </c>
       <c r="V16" t="n">
-        <v>544.3817562535788</v>
+        <v>544.3817562535786</v>
       </c>
       <c r="W16" t="n">
-        <v>280.1709198009885</v>
+        <v>544.3817562535786</v>
       </c>
       <c r="X16" t="n">
-        <v>77.38770248734167</v>
+        <v>544.3817562535786</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.38770248734167</v>
+        <v>544.3817562535786</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1308.927135646022</v>
       </c>
       <c r="E17" t="n">
-        <v>1006.692191525459</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F17" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G17" t="n">
-        <v>345.6907875499983</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H17" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551412</v>
       </c>
       <c r="I17" t="n">
         <v>73.20601563880585</v>
@@ -5516,34 +5516,34 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K17" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L17" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M17" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N17" t="n">
         <v>2452.791422191916</v>
       </c>
       <c r="O17" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P17" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q17" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R17" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S17" t="n">
         <v>3586.856658284235</v>
       </c>
       <c r="T17" t="n">
-        <v>3455.45980629149</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U17" t="n">
         <v>3285.318664764111</v>
@@ -5592,25 +5592,25 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J18" t="n">
-        <v>190.1641956615502</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K18" t="n">
-        <v>254.8646126176073</v>
+        <v>399.7270172373158</v>
       </c>
       <c r="L18" t="n">
-        <v>755.3167907479818</v>
+        <v>900.1791953676905</v>
       </c>
       <c r="M18" t="n">
-        <v>930.2520863496541</v>
+        <v>1075.114490969363</v>
       </c>
       <c r="N18" t="n">
-        <v>1463.839487262977</v>
+        <v>1743.637398825259</v>
       </c>
       <c r="O18" t="n">
-        <v>2008.991663148739</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P18" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.936419551312</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>550.1773711940702</v>
+        <v>419.502585501208</v>
       </c>
       <c r="C19" t="n">
-        <v>464.7944967438449</v>
+        <v>334.1197110509828</v>
       </c>
       <c r="D19" t="n">
-        <v>398.2311658091908</v>
+        <v>267.5563801163287</v>
       </c>
       <c r="E19" t="n">
-        <v>333.8713807044792</v>
+        <v>203.1965950116172</v>
       </c>
       <c r="F19" t="n">
-        <v>270.5347416842505</v>
+        <v>144.0442811065614</v>
       </c>
       <c r="G19" t="n">
-        <v>185.4658039375074</v>
+        <v>144.0442811065614</v>
       </c>
       <c r="H19" t="n">
-        <v>114.6275384697519</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I19" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K19" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L19" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M19" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192451</v>
       </c>
       <c r="N19" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O19" t="n">
         <v>1406.224749455342</v>
       </c>
       <c r="P19" t="n">
-        <v>1611.737284042549</v>
+        <v>1611.73728404255</v>
       </c>
       <c r="Q19" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R19" t="n">
         <v>1648.165075188308</v>
       </c>
       <c r="S19" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660469</v>
       </c>
       <c r="T19" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U19" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227435</v>
       </c>
       <c r="V19" t="n">
-        <v>1005.137116499228</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W19" t="n">
-        <v>799.2732549399493</v>
+        <v>799.2732549399503</v>
       </c>
       <c r="X19" t="n">
-        <v>785.5117982124764</v>
+        <v>654.8370125196146</v>
       </c>
       <c r="Y19" t="n">
-        <v>648.2725275466283</v>
+        <v>517.5977418537661</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E20" t="n">
         <v>1006.69219152546</v>
@@ -5768,34 +5768,34 @@
         <v>2994.282791219484</v>
       </c>
       <c r="P20" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q20" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R20" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S20" t="n">
-        <v>3586.856658284234</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T20" t="n">
-        <v>3455.459806291489</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U20" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V20" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W20" t="n">
         <v>2768.59373910579</v>
       </c>
       <c r="X20" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y20" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J21" t="n">
-        <v>190.1641956615502</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K21" t="n">
-        <v>254.8646126176073</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L21" t="n">
-        <v>620.3812838054089</v>
+        <v>271.2266688748131</v>
       </c>
       <c r="M21" t="n">
-        <v>795.3165794070811</v>
+        <v>907.2099775889852</v>
       </c>
       <c r="N21" t="n">
-        <v>1463.839487262977</v>
+        <v>1575.732885444881</v>
       </c>
       <c r="O21" t="n">
-        <v>2008.991663148739</v>
+        <v>2120.885061330643</v>
       </c>
       <c r="P21" t="n">
-        <v>2429.521278084463</v>
+        <v>2541.414676266367</v>
       </c>
       <c r="Q21" t="n">
         <v>2657.936419551312</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>550.1773711940698</v>
+        <v>445.4192093428953</v>
       </c>
       <c r="C22" t="n">
-        <v>464.7944967438446</v>
+        <v>360.03633489267</v>
       </c>
       <c r="D22" t="n">
-        <v>398.2311658091905</v>
+        <v>293.4730039580159</v>
       </c>
       <c r="E22" t="n">
-        <v>333.8713807044791</v>
+        <v>229.1132188533044</v>
       </c>
       <c r="F22" t="n">
-        <v>270.5347416842504</v>
+        <v>229.1132188533044</v>
       </c>
       <c r="G22" t="n">
-        <v>185.4658039375074</v>
+        <v>144.0442811065614</v>
       </c>
       <c r="H22" t="n">
-        <v>114.6275384697519</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I22" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K22" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L22" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M22" t="n">
-        <v>866.9687724192448</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N22" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O22" t="n">
         <v>1406.224749455342</v>
@@ -5929,31 +5929,31 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q22" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R22" t="n">
-        <v>1648.165075188309</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S22" t="n">
-        <v>1524.009697660469</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T22" t="n">
         <v>1381.868004238608</v>
       </c>
       <c r="U22" t="n">
-        <v>1176.268296227435</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V22" t="n">
-        <v>1135.811902192091</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W22" t="n">
-        <v>929.948040632812</v>
+        <v>799.2732549399499</v>
       </c>
       <c r="X22" t="n">
-        <v>785.5117982124763</v>
+        <v>654.8370125196142</v>
       </c>
       <c r="Y22" t="n">
-        <v>648.2725275466279</v>
+        <v>543.5143656954534</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C23" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E23" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F23" t="n">
-        <v>679.2595952135339</v>
+        <v>679.259595213534</v>
       </c>
       <c r="G23" t="n">
         <v>345.6907875499987</v>
       </c>
       <c r="H23" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I23" t="n">
         <v>73.20601563880585</v>
@@ -5990,49 +5990,49 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K23" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L23" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M23" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N23" t="n">
         <v>2452.791422191916</v>
       </c>
       <c r="O23" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P23" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q23" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R23" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S23" t="n">
         <v>3586.856658284235</v>
       </c>
       <c r="T23" t="n">
-        <v>3455.45980629149</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U23" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V23" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W23" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X23" t="n">
-        <v>2478.681289322391</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y23" t="n">
-        <v>2172.095265824261</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J24" t="n">
-        <v>190.1641956615502</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K24" t="n">
-        <v>516.68519726006</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L24" t="n">
-        <v>650.00543354001</v>
+        <v>638.3586107252377</v>
       </c>
       <c r="M24" t="n">
-        <v>1285.988742254182</v>
+        <v>813.29390632691</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.511650110078</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O24" t="n">
-        <v>2109.740129911877</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P24" t="n">
         <v>2429.521278084463</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>550.1773711940698</v>
+        <v>419.5025855012064</v>
       </c>
       <c r="C25" t="n">
-        <v>464.7944967438445</v>
+        <v>419.5025855012064</v>
       </c>
       <c r="D25" t="n">
-        <v>398.2311658091904</v>
+        <v>352.9392545665522</v>
       </c>
       <c r="E25" t="n">
-        <v>333.871380704479</v>
+        <v>292.4498578735335</v>
       </c>
       <c r="F25" t="n">
-        <v>270.5347416842503</v>
+        <v>229.1132188533047</v>
       </c>
       <c r="G25" t="n">
-        <v>185.4658039375074</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H25" t="n">
-        <v>114.6275384697519</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I25" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125879</v>
       </c>
       <c r="K25" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278779</v>
       </c>
       <c r="L25" t="n">
         <v>582.1747424683952</v>
@@ -6175,22 +6175,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T25" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U25" t="n">
-        <v>1176.268296227435</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V25" t="n">
-        <v>1135.811902192091</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W25" t="n">
-        <v>929.9480406328119</v>
+        <v>799.2732549399491</v>
       </c>
       <c r="X25" t="n">
-        <v>785.5117982124762</v>
+        <v>654.8370125196133</v>
       </c>
       <c r="Y25" t="n">
-        <v>648.2725275466279</v>
+        <v>517.5977418537645</v>
       </c>
     </row>
     <row r="26">
@@ -6209,52 +6209,52 @@
         <v>1308.927135646022</v>
       </c>
       <c r="E26" t="n">
-        <v>1006.692191525459</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F26" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G26" t="n">
-        <v>345.6907875499983</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H26" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I26" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J26" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K26" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L26" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M26" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N26" t="n">
-        <v>2452.791422191915</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O26" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P26" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q26" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R26" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="S26" t="n">
         <v>3586.856658284235</v>
       </c>
       <c r="T26" t="n">
-        <v>3455.45980629149</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U26" t="n">
         <v>3285.318664764111</v>
@@ -6306,19 +6306,19 @@
         <v>190.1641956615502</v>
       </c>
       <c r="K27" t="n">
-        <v>516.68519726006</v>
+        <v>254.8646126176073</v>
       </c>
       <c r="L27" t="n">
-        <v>864.5351077304092</v>
+        <v>388.1848488975574</v>
       </c>
       <c r="M27" t="n">
-        <v>1500.518416444581</v>
+        <v>1024.16815761173</v>
       </c>
       <c r="N27" t="n">
-        <v>2169.041324300477</v>
+        <v>1692.691065467626</v>
       </c>
       <c r="O27" t="n">
-        <v>2324.269804102277</v>
+        <v>2237.843241353387</v>
       </c>
       <c r="P27" t="n">
         <v>2429.521278084463</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>419.5025855012063</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="C28" t="n">
-        <v>419.5025855012063</v>
+        <v>338.3040361661558</v>
       </c>
       <c r="D28" t="n">
-        <v>398.231165809191</v>
+        <v>271.7407052315016</v>
       </c>
       <c r="E28" t="n">
-        <v>333.8713807044795</v>
+        <v>207.3809201267901</v>
       </c>
       <c r="F28" t="n">
-        <v>270.5347416842507</v>
+        <v>144.0442811065614</v>
       </c>
       <c r="G28" t="n">
-        <v>185.4658039375076</v>
+        <v>144.0442811065614</v>
       </c>
       <c r="H28" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I28" t="n">
         <v>73.20601563880585</v>
@@ -6385,19 +6385,19 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K28" t="n">
-        <v>317.6953254278776</v>
+        <v>317.6953254278775</v>
       </c>
       <c r="L28" t="n">
         <v>582.1747424683948</v>
       </c>
       <c r="M28" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N28" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O28" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P28" t="n">
         <v>1611.737284042549</v>
@@ -6412,22 +6412,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T28" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U28" t="n">
-        <v>1176.268296227433</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V28" t="n">
-        <v>1005.137116499228</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W28" t="n">
-        <v>799.2732549399487</v>
+        <v>799.2732549399498</v>
       </c>
       <c r="X28" t="n">
-        <v>654.8370125196129</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y28" t="n">
-        <v>517.5977418537644</v>
+        <v>517.5977418537656</v>
       </c>
     </row>
     <row r="29">
@@ -6440,43 +6440,43 @@
         <v>1869.048734237822</v>
       </c>
       <c r="C29" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D29" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E29" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F29" t="n">
-        <v>679.2595952135339</v>
+        <v>679.259595213534</v>
       </c>
       <c r="G29" t="n">
-        <v>345.690787549999</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H29" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I29" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J29" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069162</v>
       </c>
       <c r="K29" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L29" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M29" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N29" t="n">
         <v>2452.791422191916</v>
       </c>
       <c r="O29" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P29" t="n">
         <v>3418.758763931393</v>
@@ -6488,16 +6488,16 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S29" t="n">
-        <v>3586.856658284237</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T29" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U29" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V29" t="n">
-        <v>3037.809085898224</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W29" t="n">
         <v>2768.593739105791</v>
@@ -6543,10 +6543,10 @@
         <v>190.1641956615502</v>
       </c>
       <c r="K30" t="n">
-        <v>516.6851972600601</v>
+        <v>254.8646126176073</v>
       </c>
       <c r="L30" t="n">
-        <v>1017.137375390435</v>
+        <v>633.8822212930268</v>
       </c>
       <c r="M30" t="n">
         <v>1269.865530007199</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>464.7944967438457</v>
+        <v>543.6579630290464</v>
       </c>
       <c r="C31" t="n">
-        <v>464.7944967438457</v>
+        <v>458.2750885788211</v>
       </c>
       <c r="D31" t="n">
-        <v>398.2311658091915</v>
+        <v>391.7117576441669</v>
       </c>
       <c r="E31" t="n">
-        <v>333.8713807044799</v>
+        <v>327.3519725394553</v>
       </c>
       <c r="F31" t="n">
-        <v>270.534741684251</v>
+        <v>264.0153335192265</v>
       </c>
       <c r="G31" t="n">
-        <v>185.4658039375079</v>
+        <v>178.9463957724834</v>
       </c>
       <c r="H31" t="n">
-        <v>114.6275384697521</v>
+        <v>108.1081303047275</v>
       </c>
       <c r="I31" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5105320125875</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K31" t="n">
-        <v>317.6953254278775</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L31" t="n">
-        <v>582.1747424683947</v>
+        <v>582.1747424683942</v>
       </c>
       <c r="M31" t="n">
-        <v>866.9687724192441</v>
+        <v>866.9687724192438</v>
       </c>
       <c r="N31" t="n">
         <v>1152.372828683041</v>
@@ -6643,28 +6643,28 @@
         <v>1695.782222838227</v>
       </c>
       <c r="R31" t="n">
-        <v>1693.456986430948</v>
+        <v>1648.165075188307</v>
       </c>
       <c r="S31" t="n">
-        <v>1569.301608903108</v>
+        <v>1648.165075188307</v>
       </c>
       <c r="T31" t="n">
-        <v>1427.159915481247</v>
+        <v>1506.023381766447</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.560207470073</v>
+        <v>1300.423673755274</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.429027741868</v>
+        <v>1129.292494027068</v>
       </c>
       <c r="W31" t="n">
-        <v>844.5651661825888</v>
+        <v>923.428632467789</v>
       </c>
       <c r="X31" t="n">
-        <v>700.128923762253</v>
+        <v>778.9923900474532</v>
       </c>
       <c r="Y31" t="n">
-        <v>562.889653096404</v>
+        <v>641.7531193816046</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C32" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E32" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F32" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G32" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H32" t="n">
         <v>110.6693538551413</v>
@@ -6725,7 +6725,7 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S32" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T32" t="n">
         <v>3455.459806291491</v>
@@ -6740,10 +6740,10 @@
         <v>2768.59373910579</v>
       </c>
       <c r="X32" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y32" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="33">
@@ -6783,16 +6783,16 @@
         <v>516.6851972600601</v>
       </c>
       <c r="L33" t="n">
-        <v>864.5351077304088</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M33" t="n">
-        <v>1500.518416444581</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N33" t="n">
-        <v>2169.041324300477</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O33" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P33" t="n">
         <v>2429.521278084463</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>550.17737119407</v>
+        <v>467.119733151127</v>
       </c>
       <c r="C34" t="n">
-        <v>464.7944967438448</v>
+        <v>381.7368587009017</v>
       </c>
       <c r="D34" t="n">
-        <v>398.2311658091907</v>
+        <v>315.1735277662476</v>
       </c>
       <c r="E34" t="n">
-        <v>333.8713807044792</v>
+        <v>250.813742661536</v>
       </c>
       <c r="F34" t="n">
-        <v>270.5347416842504</v>
+        <v>187.4771036413074</v>
       </c>
       <c r="G34" t="n">
-        <v>185.4658039375074</v>
+        <v>102.4081658945649</v>
       </c>
       <c r="H34" t="n">
-        <v>114.6275384697519</v>
+        <v>102.4081658945649</v>
       </c>
       <c r="I34" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K34" t="n">
-        <v>317.6953254278781</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L34" t="n">
-        <v>582.1747424683954</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M34" t="n">
-        <v>866.9687724192452</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N34" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O34" t="n">
         <v>1406.224749455342</v>
@@ -6877,31 +6877,31 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q34" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R34" t="n">
-        <v>1648.165075188308</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="S34" t="n">
-        <v>1524.009697660468</v>
+        <v>1571.626845310388</v>
       </c>
       <c r="T34" t="n">
-        <v>1381.868004238608</v>
+        <v>1429.485151888528</v>
       </c>
       <c r="U34" t="n">
-        <v>1176.268296227434</v>
+        <v>1223.885443877354</v>
       </c>
       <c r="V34" t="n">
-        <v>1005.137116499229</v>
+        <v>1052.754264149148</v>
       </c>
       <c r="W34" t="n">
-        <v>799.2732549399499</v>
+        <v>846.8904025898694</v>
       </c>
       <c r="X34" t="n">
-        <v>785.5117982124769</v>
+        <v>702.4541601695337</v>
       </c>
       <c r="Y34" t="n">
-        <v>648.2725275466281</v>
+        <v>565.2148895036852</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C35" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D35" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E35" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F35" t="n">
-        <v>679.2595952135338</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G35" t="n">
-        <v>345.6907875499986</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H35" t="n">
         <v>110.6693538551413</v>
@@ -6965,16 +6965,16 @@
         <v>3586.856658284235</v>
       </c>
       <c r="T35" t="n">
-        <v>3455.45980629149</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U35" t="n">
-        <v>3285.318664764111</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V35" t="n">
-        <v>3037.809085898222</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W35" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X35" t="n">
         <v>2478.681289322392</v>
@@ -7017,19 +7017,19 @@
         <v>190.1641956615502</v>
       </c>
       <c r="K36" t="n">
-        <v>516.6851972600601</v>
+        <v>254.8646126176073</v>
       </c>
       <c r="L36" t="n">
-        <v>864.5351077304088</v>
+        <v>549.2569667768712</v>
       </c>
       <c r="M36" t="n">
-        <v>1500.518416444581</v>
+        <v>1185.240275491043</v>
       </c>
       <c r="N36" t="n">
-        <v>2169.041324300477</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O36" t="n">
-        <v>2324.269804102277</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P36" t="n">
         <v>2429.521278084463</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>419.5025855012076</v>
+        <v>479.3391057263146</v>
       </c>
       <c r="C37" t="n">
-        <v>419.5025855012076</v>
+        <v>393.9562312760893</v>
       </c>
       <c r="D37" t="n">
-        <v>352.9392545665535</v>
+        <v>327.3929003414352</v>
       </c>
       <c r="E37" t="n">
-        <v>288.579469461842</v>
+        <v>263.0331152367237</v>
       </c>
       <c r="F37" t="n">
-        <v>270.5347416842505</v>
+        <v>199.6964762164949</v>
       </c>
       <c r="G37" t="n">
-        <v>185.4658039375075</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="H37" t="n">
         <v>114.6275384697519</v>
@@ -7093,7 +7093,7 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K37" t="n">
         <v>317.6953254278777</v>
@@ -7132,13 +7132,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W37" t="n">
-        <v>799.27325493995</v>
+        <v>799.2732549399494</v>
       </c>
       <c r="X37" t="n">
-        <v>654.8370125196143</v>
+        <v>654.8370125196137</v>
       </c>
       <c r="Y37" t="n">
-        <v>517.5977418537657</v>
+        <v>517.5977418537652</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F38" t="n">
-        <v>679.2595952135342</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G38" t="n">
-        <v>345.690787549999</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H38" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551412</v>
       </c>
       <c r="I38" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J38" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K38" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L38" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M38" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N38" t="n">
         <v>2452.791422191916</v>
       </c>
       <c r="O38" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P38" t="n">
         <v>3418.758763931393</v>
@@ -7254,16 +7254,16 @@
         <v>190.1641956615502</v>
       </c>
       <c r="K39" t="n">
-        <v>516.6851972600601</v>
+        <v>341.2911753664965</v>
       </c>
       <c r="L39" t="n">
-        <v>864.5351077304088</v>
+        <v>474.6114116464466</v>
       </c>
       <c r="M39" t="n">
-        <v>1500.518416444581</v>
+        <v>1110.594720360619</v>
       </c>
       <c r="N39" t="n">
-        <v>2169.041324300477</v>
+        <v>1779.117628216515</v>
       </c>
       <c r="O39" t="n">
         <v>2324.269804102277</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>464.7944967438453</v>
+        <v>419.5025855012074</v>
       </c>
       <c r="C40" t="n">
-        <v>464.7944967438453</v>
+        <v>334.1197110509821</v>
       </c>
       <c r="D40" t="n">
-        <v>398.2311658091911</v>
+        <v>267.556380116328</v>
       </c>
       <c r="E40" t="n">
-        <v>333.8713807044795</v>
+        <v>203.1965950116165</v>
       </c>
       <c r="F40" t="n">
-        <v>270.5347416842507</v>
+        <v>158.2749533855489</v>
       </c>
       <c r="G40" t="n">
-        <v>185.4658039375076</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="H40" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I40" t="n">
         <v>73.20601563880585</v>
@@ -7336,7 +7336,7 @@
         <v>317.6953254278776</v>
       </c>
       <c r="L40" t="n">
-        <v>582.1747424683948</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M40" t="n">
         <v>866.9687724192444</v>
@@ -7357,25 +7357,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S40" t="n">
-        <v>1569.301608903106</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T40" t="n">
-        <v>1427.159915481246</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U40" t="n">
-        <v>1221.560207470072</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V40" t="n">
-        <v>1050.429027741867</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W40" t="n">
-        <v>844.565166182588</v>
+        <v>799.2732549399495</v>
       </c>
       <c r="X40" t="n">
-        <v>700.1289237622522</v>
+        <v>654.8370125196138</v>
       </c>
       <c r="Y40" t="n">
-        <v>562.8896530964034</v>
+        <v>517.5977418537656</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>1869.048734237822</v>
       </c>
       <c r="C41" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D41" t="n">
-        <v>1308.927135646022</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E41" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F41" t="n">
-        <v>679.2595952135337</v>
+        <v>679.259595213534</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6907875499984</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H41" t="n">
         <v>110.6693538551414</v>
@@ -7439,7 +7439,7 @@
         <v>3586.856658284235</v>
       </c>
       <c r="T41" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U41" t="n">
         <v>3285.318664764112</v>
@@ -7488,25 +7488,25 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J42" t="n">
-        <v>190.1641956615502</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K42" t="n">
-        <v>516.6851972600601</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L42" t="n">
-        <v>864.5351077304088</v>
+        <v>638.3586107252377</v>
       </c>
       <c r="M42" t="n">
-        <v>1500.518416444581</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N42" t="n">
-        <v>2169.041324300477</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O42" t="n">
-        <v>2324.269804102277</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P42" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q42" t="n">
         <v>2657.936419551312</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>550.1773711940706</v>
+        <v>419.5025855012064</v>
       </c>
       <c r="C43" t="n">
-        <v>464.7944967438452</v>
+        <v>401.4578577236164</v>
       </c>
       <c r="D43" t="n">
-        <v>398.2311658091911</v>
+        <v>334.8945267889623</v>
       </c>
       <c r="E43" t="n">
-        <v>333.8713807044795</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="F43" t="n">
         <v>270.5347416842507</v>
@@ -7606,13 +7606,13 @@
         <v>1005.137116499228</v>
       </c>
       <c r="W43" t="n">
-        <v>799.2732549399491</v>
+        <v>799.273254939949</v>
       </c>
       <c r="X43" t="n">
-        <v>785.5117982124773</v>
+        <v>654.8370125196132</v>
       </c>
       <c r="Y43" t="n">
-        <v>648.2725275466288</v>
+        <v>517.5977418537645</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7628,19 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D44" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E44" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525459</v>
       </c>
       <c r="F44" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135333</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6907875499987</v>
+        <v>345.690787549998</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I44" t="n">
         <v>73.20601563880585</v>
@@ -7691,7 +7691,7 @@
         <v>2478.681289322392</v>
       </c>
       <c r="Y44" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J45" t="n">
-        <v>160.5400459269486</v>
+        <v>190.1641956615502</v>
       </c>
       <c r="K45" t="n">
-        <v>487.0610475254585</v>
+        <v>254.8646126176073</v>
       </c>
       <c r="L45" t="n">
-        <v>620.3812838054087</v>
+        <v>755.3167907479819</v>
       </c>
       <c r="M45" t="n">
-        <v>795.316579407081</v>
+        <v>1391.300099462154</v>
       </c>
       <c r="N45" t="n">
-        <v>1463.839487262977</v>
+        <v>1585.274056717932</v>
       </c>
       <c r="O45" t="n">
-        <v>2008.991663148739</v>
+        <v>2130.426232603694</v>
       </c>
       <c r="P45" t="n">
-        <v>2429.521278084463</v>
+        <v>2550.955847539418</v>
       </c>
       <c r="Q45" t="n">
         <v>2657.936419551312</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>419.5025855012083</v>
+        <v>419.5025855012061</v>
       </c>
       <c r="C46" t="n">
-        <v>400.4347116391335</v>
+        <v>334.1197110509807</v>
       </c>
       <c r="D46" t="n">
-        <v>333.8713807044793</v>
+        <v>267.5563801163265</v>
       </c>
       <c r="E46" t="n">
-        <v>333.8713807044793</v>
+        <v>203.1965950116149</v>
       </c>
       <c r="F46" t="n">
-        <v>270.5347416842506</v>
+        <v>203.1965950116149</v>
       </c>
       <c r="G46" t="n">
-        <v>185.4658039375076</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H46" t="n">
-        <v>114.6275384697519</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I46" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J46" t="n">
-        <v>136.5105320125875</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K46" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L46" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M46" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192444</v>
       </c>
       <c r="N46" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O46" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P46" t="n">
         <v>1611.737284042549</v>
@@ -7834,22 +7834,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T46" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U46" t="n">
-        <v>1176.268296227435</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V46" t="n">
-        <v>1005.13711649923</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W46" t="n">
-        <v>799.2732549399507</v>
+        <v>799.2732549399491</v>
       </c>
       <c r="X46" t="n">
-        <v>654.837012519615</v>
+        <v>654.8370125196133</v>
       </c>
       <c r="Y46" t="n">
-        <v>517.5977418537664</v>
+        <v>517.5977418537643</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,7 +8073,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>87.29955833221155</v>
+        <v>182.1642767787515</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>119.1896257433744</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.91160905548239</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858961</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9252,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>343.0438824823686</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>321.3154539193649</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858961</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>234.5418534422744</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>97.05365320867332</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858961</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>461.1834582629181</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>216.6966405963631</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>216.6966405963628</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,10 +9966,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>87.29955833221155</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>248.1791640358276</v>
       </c>
       <c r="M30" t="n">
-        <v>78.57864546978979</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10431,19 +10431,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>216.6966405963622</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>6.735900996519632</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>216.6966405963622</v>
+        <v>162.6991089690038</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>87.29955833221132</v>
       </c>
       <c r="L39" t="n">
-        <v>216.6966405963622</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,7 +10914,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858961</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>216.6966405963622</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>120.0756271819436</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,19 +11373,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>96.16765177010417</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>87.41610646821769</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>356.9760998237352</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4210321069054</v>
+        <v>214.7341842558617</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>290.4347245022873</v>
       </c>
       <c r="I11" t="n">
-        <v>94.85220997855035</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>226.2032352564835</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>361.2836684075272</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.8777099334108</v>
+        <v>154.8777099334109</v>
       </c>
       <c r="C13" t="n">
-        <v>142.2925508501013</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>46.65933560658083</v>
+        <v>123.661202769686</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4796923980426</v>
+        <v>121.4796923980428</v>
       </c>
       <c r="F13" t="n">
-        <v>120.4667777744047</v>
+        <v>120.4667777744048</v>
       </c>
       <c r="G13" t="n">
-        <v>141.9817535136538</v>
+        <v>141.981753513654</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>127.8933879574564</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77081274701486</v>
+        <v>98.77081274701499</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.904481317799</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>180.6773288969399</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>222.9791059442811</v>
       </c>
       <c r="X13" t="n">
-        <v>200.7553851405106</v>
+        <v>200.7553851405108</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.6303831035682</v>
+        <v>193.6303831035684</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>85.19517299460989</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>329.7287713721564</v>
+        <v>329.7287713721565</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>356.9760998237353</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>84.89549599123256</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>94.85220997855038</v>
+        <v>94.85220997855042</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4731875638751</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>226.2032352564835</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.8777099334108</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.1526808700508</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.6612027696858</v>
+        <v>75.8471727426159</v>
       </c>
       <c r="E16" t="n">
-        <v>121.4796923980426</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>120.4667777744047</v>
+        <v>120.4667777744048</v>
       </c>
       <c r="G16" t="n">
-        <v>141.9817535136538</v>
+        <v>141.9817535136539</v>
       </c>
       <c r="H16" t="n">
-        <v>127.8933879574562</v>
+        <v>127.8933879574563</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77081274701487</v>
+        <v>98.77081274701493</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>104.9044813177991</v>
       </c>
       <c r="S16" t="n">
-        <v>180.6773288969399</v>
+        <v>180.67732889694</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>261.5687280880645</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.7553851405107</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.6303831035682</v>
+        <v>193.6303831035683</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4.142481864020809</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>84.21824836927557</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41.00730760263659</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>129.3680378359342</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.00730760263662</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>129.3680378359328</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>25.65745760327198</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.831684527575901</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.00730760263669</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>129.3680378359326</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>84.52904570572309</v>
+        <v>4.142481864021843</v>
       </c>
       <c r="D28" t="n">
-        <v>44.8389921302125</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>84.2182483692756</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.00730760263662</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>84.52904570572318</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6.45421408337427</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.8389921302139</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>70.12988281307797</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>12.09717884943507</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>47.14097617342078</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>129.3680378359341</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>59.23815502285643</v>
       </c>
       <c r="C37" t="n">
-        <v>84.52904570572305</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>44.83899213021092</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>70.12988281307797</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>84.52904570572312</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.2308474202195</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>70.12988281307797</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>41.00730760263662</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>44.83899213021235</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>66.66476520590905</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>129.3680378359354</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>65.65185058226899</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>63.71618725366439</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>25.65745760327275</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.00730760263669</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>722216.4935131237</v>
+        <v>722216.4935131236</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>722216.4935131236</v>
+        <v>722216.4935131237</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821686.6772855904</v>
+        <v>821686.6772855903</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821686.6772855904</v>
+        <v>821686.6772855903</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821686.6772855903</v>
+        <v>821686.6772855904</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821686.6772855904</v>
+        <v>821686.6772855903</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821686.6772855904</v>
+        <v>821686.6772855903</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26314,16 @@
         <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.37164482</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448194</v>
-      </c>
       <c r="E2" t="n">
-        <v>554835.0826296237</v>
+        <v>554835.0826296238</v>
       </c>
       <c r="F2" t="n">
-        <v>554835.0826296238</v>
+        <v>554835.0826296242</v>
       </c>
       <c r="G2" t="n">
         <v>633901.1261410716</v>
@@ -26332,28 +26332,28 @@
         <v>633901.1261410717</v>
       </c>
       <c r="I2" t="n">
-        <v>633901.1261410717</v>
+        <v>633901.1261410718</v>
       </c>
       <c r="J2" t="n">
-        <v>633901.1261410717</v>
+        <v>633901.1261410718</v>
       </c>
       <c r="K2" t="n">
-        <v>633901.1261410714</v>
+        <v>633901.1261410716</v>
       </c>
       <c r="L2" t="n">
-        <v>633901.1261410716</v>
+        <v>633901.1261410719</v>
       </c>
       <c r="M2" t="n">
-        <v>633901.1261410716</v>
+        <v>633901.1261410718</v>
       </c>
       <c r="N2" t="n">
         <v>633901.1261410716</v>
       </c>
       <c r="O2" t="n">
-        <v>633901.1261410718</v>
+        <v>633901.1261410716</v>
       </c>
       <c r="P2" t="n">
-        <v>633901.1261410717</v>
+        <v>633901.1261410714</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691230.6639893665</v>
+        <v>691230.6639893664</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.80411550259</v>
+        <v>46210.80411550269</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83023.35879792739</v>
+        <v>83023.35879792742</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.80411550269</v>
+        <v>46210.80411550275</v>
       </c>
       <c r="M3" t="n">
-        <v>167978.6741701941</v>
+        <v>167978.674170194</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19963.41619882115</v>
+        <v>19963.41619882112</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>50146.45779121741</v>
+        <v>50146.45779121728</v>
       </c>
       <c r="F4" t="n">
-        <v>50146.45779121742</v>
+        <v>50146.45779121734</v>
       </c>
       <c r="G4" t="n">
         <v>108519.1209040082</v>
@@ -26436,7 +26436,7 @@
         <v>108519.1209040082</v>
       </c>
       <c r="I4" t="n">
-        <v>108519.1209040083</v>
+        <v>108519.1209040081</v>
       </c>
       <c r="J4" t="n">
         <v>108519.1209040082</v>
@@ -26451,13 +26451,13 @@
         <v>108519.1209040082</v>
       </c>
       <c r="N4" t="n">
-        <v>108519.1209040081</v>
+        <v>108519.1209040082</v>
       </c>
       <c r="O4" t="n">
         <v>108519.1209040081</v>
       </c>
       <c r="P4" t="n">
-        <v>108519.1209040082</v>
+        <v>108519.1209040081</v>
       </c>
     </row>
     <row r="5">
@@ -26482,16 +26482,16 @@
         <v>70487.90653947927</v>
       </c>
       <c r="G5" t="n">
-        <v>75344.026653462</v>
+        <v>75344.02665346202</v>
       </c>
       <c r="H5" t="n">
         <v>75344.02665346202</v>
       </c>
       <c r="I5" t="n">
+        <v>75344.026653462</v>
+      </c>
+      <c r="J5" t="n">
         <v>75344.02665346202</v>
-      </c>
-      <c r="J5" t="n">
-        <v>75344.026653462</v>
       </c>
       <c r="K5" t="n">
         <v>75344.026653462</v>
@@ -26503,13 +26503,13 @@
         <v>75344.02665346202</v>
       </c>
       <c r="N5" t="n">
-        <v>75344.026653462</v>
+        <v>75344.02665346202</v>
       </c>
       <c r="O5" t="n">
         <v>75344.026653462</v>
       </c>
       <c r="P5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.026653462</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>203028.8755024317</v>
       </c>
       <c r="C6" t="n">
+        <v>283798.3070339794</v>
+      </c>
+      <c r="D6" t="n">
         <v>283798.3070339796</v>
       </c>
-      <c r="D6" t="n">
-        <v>283798.307033979</v>
-      </c>
       <c r="E6" t="n">
-        <v>-257029.9456904395</v>
+        <v>-257292.759525972</v>
       </c>
       <c r="F6" t="n">
-        <v>434200.7182989271</v>
+        <v>433937.9044633947</v>
       </c>
       <c r="G6" t="n">
-        <v>403827.1744680988</v>
+        <v>403819.4123858285</v>
       </c>
       <c r="H6" t="n">
-        <v>450037.9785836014</v>
+        <v>450030.2165013313</v>
       </c>
       <c r="I6" t="n">
-        <v>450037.9785836014</v>
+        <v>450030.2165013315</v>
       </c>
       <c r="J6" t="n">
-        <v>367014.6197856741</v>
+        <v>367006.857703404</v>
       </c>
       <c r="K6" t="n">
-        <v>450037.9785836015</v>
+        <v>450030.2165013312</v>
       </c>
       <c r="L6" t="n">
-        <v>403827.1744680986</v>
+        <v>403819.4123858288</v>
       </c>
       <c r="M6" t="n">
-        <v>282059.3044134073</v>
+        <v>282051.5423311373</v>
       </c>
       <c r="N6" t="n">
-        <v>450037.9785836014</v>
+        <v>450030.2165013312</v>
       </c>
       <c r="O6" t="n">
-        <v>430074.5623847805</v>
+        <v>430066.8003025101</v>
       </c>
       <c r="P6" t="n">
-        <v>450037.9785836015</v>
+        <v>450030.2165013312</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="F2" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="G2" t="n">
+        <v>82.71777539290481</v>
+      </c>
+      <c r="H2" t="n">
         <v>82.71777539290478</v>
       </c>
-      <c r="H2" t="n">
-        <v>82.71777539290484</v>
-      </c>
       <c r="I2" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J2" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K2" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L2" t="n">
         <v>82.71777539290478</v>
@@ -26719,13 +26719,13 @@
         <v>82.71777539290478</v>
       </c>
       <c r="N2" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O2" t="n">
         <v>82.71777539290471</v>
       </c>
       <c r="P2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="3">
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>585.0208306634613</v>
+      </c>
+      <c r="F3" t="n">
+        <v>585.0208306634613</v>
+      </c>
+      <c r="G3" t="n">
         <v>585.0208306634612</v>
       </c>
-      <c r="F3" t="n">
-        <v>585.0208306634611</v>
-      </c>
-      <c r="G3" t="n">
-        <v>585.0208306634611</v>
-      </c>
       <c r="H3" t="n">
-        <v>585.0208306634611</v>
+        <v>585.0208306634612</v>
       </c>
       <c r="I3" t="n">
-        <v>585.0208306634611</v>
+        <v>585.0208306634612</v>
       </c>
       <c r="J3" t="n">
-        <v>585.0208306634611</v>
+        <v>585.0208306634612</v>
       </c>
       <c r="K3" t="n">
         <v>585.0208306634612</v>
@@ -26796,22 +26796,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>915.0751954850731</v>
+        <v>915.0751954850732</v>
       </c>
       <c r="F4" t="n">
-        <v>915.075195485073</v>
+        <v>915.0751954850732</v>
       </c>
       <c r="G4" t="n">
-        <v>915.0751954850731</v>
+        <v>915.0751954850732</v>
       </c>
       <c r="H4" t="n">
-        <v>915.0751954850731</v>
+        <v>915.0751954850732</v>
       </c>
       <c r="I4" t="n">
-        <v>915.0751954850731</v>
+        <v>915.0751954850732</v>
       </c>
       <c r="J4" t="n">
-        <v>915.0751954850731</v>
+        <v>915.0751954850732</v>
       </c>
       <c r="K4" t="n">
         <v>915.0751954850732</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>57.76350514437824</v>
+        <v>57.76350514437836</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852644</v>
+        <v>24.95427024852647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437837</v>
+        <v>57.76350514437843</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852644</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>674.060906607414</v>
+        <v>674.0609066074142</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.060906607414</v>
+        <v>674.0609066074142</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437824</v>
+        <v>57.76350514437836</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852644</v>
+        <v>24.95427024852647</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.060906607414</v>
+        <v>674.0609066074142</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>22.9350164552794</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
@@ -27458,28 +27458,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>94.90242310444953</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>25.57816959705289</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27582,7 +27582,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,25 +27619,25 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>179.3549983061513</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>363.7840648101838</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,22 +27692,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27749,16 +27749,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>158.425855150396</v>
       </c>
       <c r="X6" t="n">
-        <v>60.59236530492268</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>374.8264583819999</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,28 +27895,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>105.6514367921257</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,25 +27980,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>109.2483036843516</v>
       </c>
       <c r="Y9" t="n">
-        <v>60.50207587874957</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28056,7 +28056,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="C11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="D11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="E11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="F11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="G11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="H11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="I11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="T11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="U11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="V11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="W11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="X11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="C13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="D13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="F13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="G13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="H13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="I13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="J13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="K13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="L13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="M13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="N13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="O13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="P13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="R13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="S13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="T13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="U13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="V13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="W13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="X13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.95427024852654</v>
+        <v>24.9542702485264</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="C14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="D14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="E14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="F14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="G14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="H14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="I14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.135189281195352</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="T14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="U14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="V14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="W14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="X14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="C16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="D16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="F16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="G16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="H16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="I16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="J16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="K16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="L16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="M16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="N16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="O16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="P16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="R16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="S16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="T16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="U16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="V16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="W16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="X16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.95427024852654</v>
+        <v>24.95427024852646</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="C17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="D17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="E17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="F17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="G17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="H17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.135189281195352</v>
+        <v>2.135189281195323</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="T17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="U17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="W17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="X17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="C19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="D19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="E19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="F19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="H19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="I19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="J19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="K19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="L19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="O19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="P19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="R19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="S19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="T19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="U19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="V19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="W19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="X19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290481</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.135189281195352</v>
+        <v>2.135189281195323</v>
       </c>
       <c r="S20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="L22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="M22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="N22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="P22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="R22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="S22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>2.135189281195352</v>
+        <v>2.135189281195323</v>
       </c>
       <c r="S23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.71777539290484</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>2.135189281195352</v>
+        <v>2.135189281195323</v>
       </c>
       <c r="S26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="L28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="M28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="N28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="P28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="R28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="S28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.71777539290474</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>2.135189281195323</v>
       </c>
       <c r="S29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.71777539290466</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="32">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>2.135189281195323</v>
       </c>
       <c r="S38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="L40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="M40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="N40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="P40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="R40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="S40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="41">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>2.135189281195323</v>
       </c>
       <c r="S44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
   </sheetData>
@@ -31750,28 +31750,28 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H11" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I11" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J11" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K11" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L11" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M11" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N11" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O11" t="n">
         <v>396.2590089746664</v>
@@ -31780,13 +31780,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q11" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R11" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S11" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T11" t="n">
         <v>10.29519069840925</v>
@@ -31835,10 +31835,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I12" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J12" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K12" t="n">
         <v>203.1953954956288</v>
@@ -31847,7 +31847,7 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M12" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N12" t="n">
         <v>327.2750022406848</v>
@@ -31862,16 +31862,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R12" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S12" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T12" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H13" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I13" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K13" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L13" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M13" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N13" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O13" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P13" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R13" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S13" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T13" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H14" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I14" t="n">
-        <v>90.66940934332899</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J14" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K14" t="n">
-        <v>299.1631899035467</v>
+        <v>299.1631899035468</v>
       </c>
       <c r="L14" t="n">
-        <v>371.1383908941674</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M14" t="n">
-        <v>412.9629705818511</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N14" t="n">
-        <v>419.6451431853589</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O14" t="n">
-        <v>396.2590089746662</v>
+        <v>396.2590089746664</v>
       </c>
       <c r="P14" t="n">
-        <v>338.1978963836946</v>
+        <v>338.1978963836947</v>
       </c>
       <c r="Q14" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R14" t="n">
-        <v>147.7339286599543</v>
+        <v>147.7339286599544</v>
       </c>
       <c r="S14" t="n">
-        <v>53.59261177384371</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T14" t="n">
         <v>10.29519069840925</v>
@@ -32069,46 +32069,46 @@
         <v>1.258346692370464</v>
       </c>
       <c r="H15" t="n">
-        <v>12.15297989736737</v>
+        <v>12.15297989736738</v>
       </c>
       <c r="I15" t="n">
-        <v>43.32465585573745</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J15" t="n">
-        <v>118.8861671068077</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K15" t="n">
         <v>203.1953954956288</v>
       </c>
       <c r="L15" t="n">
-        <v>273.221285113157</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M15" t="n">
-        <v>318.8363527115862</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N15" t="n">
-        <v>327.2750022406847</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O15" t="n">
-        <v>299.3926886886865</v>
+        <v>299.3926886886866</v>
       </c>
       <c r="P15" t="n">
-        <v>240.2890275983563</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q15" t="n">
-        <v>160.6268514682016</v>
+        <v>160.6268514682017</v>
       </c>
       <c r="R15" t="n">
-        <v>78.1278762157732</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S15" t="n">
-        <v>23.37323790433732</v>
+        <v>23.37323790433733</v>
       </c>
       <c r="T15" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08278596660331999</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.054955596278372</v>
+        <v>1.054955596278373</v>
       </c>
       <c r="H16" t="n">
-        <v>9.379514301456808</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I16" t="n">
-        <v>31.72539193171688</v>
+        <v>31.72539193171689</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58536065688092</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K16" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L16" t="n">
-        <v>156.8431256503318</v>
+        <v>156.8431256503319</v>
       </c>
       <c r="M16" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N16" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O16" t="n">
-        <v>149.1131782812376</v>
+        <v>149.1131782812377</v>
       </c>
       <c r="P16" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.33814543018262</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R16" t="n">
-        <v>47.43463981084389</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S16" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T16" t="n">
-        <v>4.507537547734862</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05754303252427492</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,37 +32230,37 @@
         <v>24.08580736495344</v>
       </c>
       <c r="I17" t="n">
-        <v>90.66940934332899</v>
+        <v>90.66940934332902</v>
       </c>
       <c r="J17" t="n">
         <v>199.6096953830068</v>
       </c>
       <c r="K17" t="n">
-        <v>299.1631899035467</v>
+        <v>299.1631899035468</v>
       </c>
       <c r="L17" t="n">
-        <v>371.1383908941674</v>
+        <v>371.1383908941675</v>
       </c>
       <c r="M17" t="n">
-        <v>412.9629705818511</v>
+        <v>412.9629705818512</v>
       </c>
       <c r="N17" t="n">
-        <v>419.6451431853589</v>
+        <v>419.645143185359</v>
       </c>
       <c r="O17" t="n">
-        <v>396.2590089746662</v>
+        <v>396.2590089746664</v>
       </c>
       <c r="P17" t="n">
-        <v>338.1978963836946</v>
+        <v>338.1978963836947</v>
       </c>
       <c r="Q17" t="n">
         <v>253.9725355871712</v>
       </c>
       <c r="R17" t="n">
-        <v>147.7339286599543</v>
+        <v>147.7339286599544</v>
       </c>
       <c r="S17" t="n">
-        <v>53.59261177384371</v>
+        <v>53.59261177384372</v>
       </c>
       <c r="T17" t="n">
         <v>10.29519069840925</v>
@@ -32306,10 +32306,10 @@
         <v>1.258346692370464</v>
       </c>
       <c r="H18" t="n">
-        <v>12.15297989736737</v>
+        <v>12.15297989736738</v>
       </c>
       <c r="I18" t="n">
-        <v>43.32465585573745</v>
+        <v>43.32465585573746</v>
       </c>
       <c r="J18" t="n">
         <v>118.8861671068077</v>
@@ -32318,34 +32318,34 @@
         <v>203.1953954956288</v>
       </c>
       <c r="L18" t="n">
-        <v>273.221285113157</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M18" t="n">
-        <v>318.8363527115862</v>
+        <v>318.8363527115863</v>
       </c>
       <c r="N18" t="n">
-        <v>327.2750022406847</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O18" t="n">
-        <v>299.3926886886865</v>
+        <v>299.3926886886866</v>
       </c>
       <c r="P18" t="n">
-        <v>240.2890275983563</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q18" t="n">
-        <v>160.6268514682016</v>
+        <v>160.6268514682017</v>
       </c>
       <c r="R18" t="n">
-        <v>78.1278762157732</v>
+        <v>78.12787621577321</v>
       </c>
       <c r="S18" t="n">
-        <v>23.37323790433732</v>
+        <v>23.37323790433733</v>
       </c>
       <c r="T18" t="n">
         <v>5.072020220563402</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08278596660331999</v>
+        <v>0.08278596660332002</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,22 +32382,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.054955596278372</v>
+        <v>1.054955596278373</v>
       </c>
       <c r="H19" t="n">
-        <v>9.379514301456808</v>
+        <v>9.37951430145681</v>
       </c>
       <c r="I19" t="n">
-        <v>31.72539193171688</v>
+        <v>31.72539193171689</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58536065688092</v>
+        <v>74.58536065688094</v>
       </c>
       <c r="K19" t="n">
         <v>122.5666592767054</v>
       </c>
       <c r="L19" t="n">
-        <v>156.8431256503318</v>
+        <v>156.8431256503319</v>
       </c>
       <c r="M19" t="n">
         <v>165.3690849693452</v>
@@ -32406,25 +32406,25 @@
         <v>161.4369777468532</v>
       </c>
       <c r="O19" t="n">
-        <v>149.1131782812376</v>
+        <v>149.1131782812377</v>
       </c>
       <c r="P19" t="n">
         <v>127.5920841171587</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.33814543018262</v>
+        <v>88.33814543018264</v>
       </c>
       <c r="R19" t="n">
-        <v>47.43463981084389</v>
+        <v>47.4346398108439</v>
       </c>
       <c r="S19" t="n">
         <v>18.38499889150581</v>
       </c>
       <c r="T19" t="n">
-        <v>4.507537547734862</v>
+        <v>4.507537547734863</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05754303252427492</v>
+        <v>0.05754303252427493</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,37 +32467,37 @@
         <v>24.08580736495344</v>
       </c>
       <c r="I20" t="n">
-        <v>90.66940934332899</v>
+        <v>90.66940934332902</v>
       </c>
       <c r="J20" t="n">
         <v>199.6096953830068</v>
       </c>
       <c r="K20" t="n">
-        <v>299.1631899035467</v>
+        <v>299.1631899035468</v>
       </c>
       <c r="L20" t="n">
-        <v>371.1383908941674</v>
+        <v>371.1383908941675</v>
       </c>
       <c r="M20" t="n">
-        <v>412.9629705818511</v>
+        <v>412.9629705818512</v>
       </c>
       <c r="N20" t="n">
-        <v>419.6451431853589</v>
+        <v>419.645143185359</v>
       </c>
       <c r="O20" t="n">
-        <v>396.2590089746662</v>
+        <v>396.2590089746664</v>
       </c>
       <c r="P20" t="n">
-        <v>338.1978963836946</v>
+        <v>338.1978963836947</v>
       </c>
       <c r="Q20" t="n">
         <v>253.9725355871712</v>
       </c>
       <c r="R20" t="n">
-        <v>147.7339286599543</v>
+        <v>147.7339286599544</v>
       </c>
       <c r="S20" t="n">
-        <v>53.59261177384371</v>
+        <v>53.59261177384372</v>
       </c>
       <c r="T20" t="n">
         <v>10.29519069840925</v>
@@ -32543,10 +32543,10 @@
         <v>1.258346692370464</v>
       </c>
       <c r="H21" t="n">
-        <v>12.15297989736737</v>
+        <v>12.15297989736738</v>
       </c>
       <c r="I21" t="n">
-        <v>43.32465585573745</v>
+        <v>43.32465585573746</v>
       </c>
       <c r="J21" t="n">
         <v>118.8861671068077</v>
@@ -32555,34 +32555,34 @@
         <v>203.1953954956288</v>
       </c>
       <c r="L21" t="n">
-        <v>273.221285113157</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M21" t="n">
-        <v>318.8363527115862</v>
+        <v>318.8363527115863</v>
       </c>
       <c r="N21" t="n">
-        <v>327.2750022406847</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O21" t="n">
-        <v>299.3926886886865</v>
+        <v>299.3926886886866</v>
       </c>
       <c r="P21" t="n">
-        <v>240.2890275983563</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q21" t="n">
-        <v>160.6268514682016</v>
+        <v>160.6268514682017</v>
       </c>
       <c r="R21" t="n">
-        <v>78.1278762157732</v>
+        <v>78.12787621577321</v>
       </c>
       <c r="S21" t="n">
-        <v>23.37323790433732</v>
+        <v>23.37323790433733</v>
       </c>
       <c r="T21" t="n">
         <v>5.072020220563402</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08278596660331999</v>
+        <v>0.08278596660332002</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,22 +32619,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.054955596278372</v>
+        <v>1.054955596278373</v>
       </c>
       <c r="H22" t="n">
-        <v>9.379514301456808</v>
+        <v>9.37951430145681</v>
       </c>
       <c r="I22" t="n">
-        <v>31.72539193171688</v>
+        <v>31.72539193171689</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58536065688092</v>
+        <v>74.58536065688094</v>
       </c>
       <c r="K22" t="n">
         <v>122.5666592767054</v>
       </c>
       <c r="L22" t="n">
-        <v>156.8431256503318</v>
+        <v>156.8431256503319</v>
       </c>
       <c r="M22" t="n">
         <v>165.3690849693452</v>
@@ -32643,25 +32643,25 @@
         <v>161.4369777468532</v>
       </c>
       <c r="O22" t="n">
-        <v>149.1131782812376</v>
+        <v>149.1131782812377</v>
       </c>
       <c r="P22" t="n">
         <v>127.5920841171587</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.33814543018262</v>
+        <v>88.33814543018264</v>
       </c>
       <c r="R22" t="n">
-        <v>47.43463981084389</v>
+        <v>47.4346398108439</v>
       </c>
       <c r="S22" t="n">
         <v>18.38499889150581</v>
       </c>
       <c r="T22" t="n">
-        <v>4.507537547734862</v>
+        <v>4.507537547734863</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05754303252427492</v>
+        <v>0.05754303252427493</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,37 +32704,37 @@
         <v>24.08580736495344</v>
       </c>
       <c r="I23" t="n">
-        <v>90.66940934332899</v>
+        <v>90.66940934332902</v>
       </c>
       <c r="J23" t="n">
         <v>199.6096953830068</v>
       </c>
       <c r="K23" t="n">
-        <v>299.1631899035467</v>
+        <v>299.1631899035468</v>
       </c>
       <c r="L23" t="n">
-        <v>371.1383908941674</v>
+        <v>371.1383908941675</v>
       </c>
       <c r="M23" t="n">
-        <v>412.9629705818511</v>
+        <v>412.9629705818512</v>
       </c>
       <c r="N23" t="n">
-        <v>419.6451431853589</v>
+        <v>419.645143185359</v>
       </c>
       <c r="O23" t="n">
-        <v>396.2590089746662</v>
+        <v>396.2590089746664</v>
       </c>
       <c r="P23" t="n">
-        <v>338.1978963836946</v>
+        <v>338.1978963836947</v>
       </c>
       <c r="Q23" t="n">
         <v>253.9725355871712</v>
       </c>
       <c r="R23" t="n">
-        <v>147.7339286599543</v>
+        <v>147.7339286599544</v>
       </c>
       <c r="S23" t="n">
-        <v>53.59261177384371</v>
+        <v>53.59261177384372</v>
       </c>
       <c r="T23" t="n">
         <v>10.29519069840925</v>
@@ -32780,10 +32780,10 @@
         <v>1.258346692370464</v>
       </c>
       <c r="H24" t="n">
-        <v>12.15297989736737</v>
+        <v>12.15297989736738</v>
       </c>
       <c r="I24" t="n">
-        <v>43.32465585573745</v>
+        <v>43.32465585573746</v>
       </c>
       <c r="J24" t="n">
         <v>118.8861671068077</v>
@@ -32792,34 +32792,34 @@
         <v>203.1953954956288</v>
       </c>
       <c r="L24" t="n">
-        <v>273.221285113157</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M24" t="n">
-        <v>318.8363527115862</v>
+        <v>318.8363527115863</v>
       </c>
       <c r="N24" t="n">
-        <v>327.2750022406847</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O24" t="n">
-        <v>299.3926886886865</v>
+        <v>299.3926886886866</v>
       </c>
       <c r="P24" t="n">
-        <v>240.2890275983563</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q24" t="n">
-        <v>160.6268514682016</v>
+        <v>160.6268514682017</v>
       </c>
       <c r="R24" t="n">
-        <v>78.1278762157732</v>
+        <v>78.12787621577321</v>
       </c>
       <c r="S24" t="n">
-        <v>23.37323790433732</v>
+        <v>23.37323790433733</v>
       </c>
       <c r="T24" t="n">
         <v>5.072020220563402</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08278596660331999</v>
+        <v>0.08278596660332002</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,22 +32856,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.054955596278372</v>
+        <v>1.054955596278373</v>
       </c>
       <c r="H25" t="n">
-        <v>9.379514301456808</v>
+        <v>9.37951430145681</v>
       </c>
       <c r="I25" t="n">
-        <v>31.72539193171688</v>
+        <v>31.72539193171689</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58536065688092</v>
+        <v>74.58536065688094</v>
       </c>
       <c r="K25" t="n">
         <v>122.5666592767054</v>
       </c>
       <c r="L25" t="n">
-        <v>156.8431256503318</v>
+        <v>156.8431256503319</v>
       </c>
       <c r="M25" t="n">
         <v>165.3690849693452</v>
@@ -32880,25 +32880,25 @@
         <v>161.4369777468532</v>
       </c>
       <c r="O25" t="n">
-        <v>149.1131782812376</v>
+        <v>149.1131782812377</v>
       </c>
       <c r="P25" t="n">
         <v>127.5920841171587</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.33814543018262</v>
+        <v>88.33814543018264</v>
       </c>
       <c r="R25" t="n">
-        <v>47.43463981084389</v>
+        <v>47.4346398108439</v>
       </c>
       <c r="S25" t="n">
         <v>18.38499889150581</v>
       </c>
       <c r="T25" t="n">
-        <v>4.507537547734862</v>
+        <v>4.507537547734863</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05754303252427492</v>
+        <v>0.05754303252427493</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,37 +32941,37 @@
         <v>24.08580736495344</v>
       </c>
       <c r="I26" t="n">
-        <v>90.66940934332899</v>
+        <v>90.66940934332902</v>
       </c>
       <c r="J26" t="n">
         <v>199.6096953830068</v>
       </c>
       <c r="K26" t="n">
-        <v>299.1631899035467</v>
+        <v>299.1631899035468</v>
       </c>
       <c r="L26" t="n">
-        <v>371.1383908941674</v>
+        <v>371.1383908941675</v>
       </c>
       <c r="M26" t="n">
-        <v>412.9629705818511</v>
+        <v>412.9629705818512</v>
       </c>
       <c r="N26" t="n">
-        <v>419.6451431853589</v>
+        <v>419.645143185359</v>
       </c>
       <c r="O26" t="n">
-        <v>396.2590089746662</v>
+        <v>396.2590089746664</v>
       </c>
       <c r="P26" t="n">
-        <v>338.1978963836946</v>
+        <v>338.1978963836947</v>
       </c>
       <c r="Q26" t="n">
         <v>253.9725355871712</v>
       </c>
       <c r="R26" t="n">
-        <v>147.7339286599543</v>
+        <v>147.7339286599544</v>
       </c>
       <c r="S26" t="n">
-        <v>53.59261177384371</v>
+        <v>53.59261177384372</v>
       </c>
       <c r="T26" t="n">
         <v>10.29519069840925</v>
@@ -33017,10 +33017,10 @@
         <v>1.258346692370464</v>
       </c>
       <c r="H27" t="n">
-        <v>12.15297989736737</v>
+        <v>12.15297989736738</v>
       </c>
       <c r="I27" t="n">
-        <v>43.32465585573745</v>
+        <v>43.32465585573746</v>
       </c>
       <c r="J27" t="n">
         <v>118.8861671068077</v>
@@ -33029,34 +33029,34 @@
         <v>203.1953954956288</v>
       </c>
       <c r="L27" t="n">
-        <v>273.221285113157</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M27" t="n">
-        <v>318.8363527115862</v>
+        <v>318.8363527115863</v>
       </c>
       <c r="N27" t="n">
-        <v>327.2750022406847</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O27" t="n">
-        <v>299.3926886886865</v>
+        <v>299.3926886886866</v>
       </c>
       <c r="P27" t="n">
-        <v>240.2890275983563</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q27" t="n">
-        <v>160.6268514682016</v>
+        <v>160.6268514682017</v>
       </c>
       <c r="R27" t="n">
-        <v>78.1278762157732</v>
+        <v>78.12787621577321</v>
       </c>
       <c r="S27" t="n">
-        <v>23.37323790433732</v>
+        <v>23.37323790433733</v>
       </c>
       <c r="T27" t="n">
         <v>5.072020220563402</v>
       </c>
       <c r="U27" t="n">
-        <v>0.08278596660331999</v>
+        <v>0.08278596660332002</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,22 +33093,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.054955596278372</v>
+        <v>1.054955596278373</v>
       </c>
       <c r="H28" t="n">
-        <v>9.379514301456808</v>
+        <v>9.37951430145681</v>
       </c>
       <c r="I28" t="n">
-        <v>31.72539193171688</v>
+        <v>31.72539193171689</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58536065688092</v>
+        <v>74.58536065688094</v>
       </c>
       <c r="K28" t="n">
         <v>122.5666592767054</v>
       </c>
       <c r="L28" t="n">
-        <v>156.8431256503318</v>
+        <v>156.8431256503319</v>
       </c>
       <c r="M28" t="n">
         <v>165.3690849693452</v>
@@ -33117,25 +33117,25 @@
         <v>161.4369777468532</v>
       </c>
       <c r="O28" t="n">
-        <v>149.1131782812376</v>
+        <v>149.1131782812377</v>
       </c>
       <c r="P28" t="n">
         <v>127.5920841171587</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.33814543018262</v>
+        <v>88.33814543018264</v>
       </c>
       <c r="R28" t="n">
-        <v>47.43463981084389</v>
+        <v>47.4346398108439</v>
       </c>
       <c r="S28" t="n">
         <v>18.38499889150581</v>
       </c>
       <c r="T28" t="n">
-        <v>4.507537547734862</v>
+        <v>4.507537547734863</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05754303252427492</v>
+        <v>0.05754303252427493</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,7 +34793,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L11" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M11" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N11" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O11" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P11" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q11" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K12" t="n">
-        <v>65.35395652126979</v>
+        <v>65.35395652126985</v>
       </c>
       <c r="L12" t="n">
-        <v>134.6669053332829</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M12" t="n">
-        <v>642.4073825395678</v>
+        <v>176.702318789568</v>
       </c>
       <c r="N12" t="n">
-        <v>675.275664500905</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O12" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P12" t="n">
-        <v>193.6141785162377</v>
+        <v>288.4788969627777</v>
       </c>
       <c r="Q12" t="n">
-        <v>230.7223651180292</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734703</v>
+        <v>6.180450788734575</v>
       </c>
       <c r="K13" t="n">
-        <v>125.2514376993491</v>
+        <v>125.251437699349</v>
       </c>
       <c r="L13" t="n">
-        <v>209.3874211591746</v>
+        <v>209.3874211591745</v>
       </c>
       <c r="M13" t="n">
-        <v>229.9072321797124</v>
+        <v>229.9072321797123</v>
       </c>
       <c r="N13" t="n">
-        <v>230.5234203746084</v>
+        <v>230.5234203746083</v>
       </c>
       <c r="O13" t="n">
-        <v>198.6525764438039</v>
+        <v>198.6525764438038</v>
       </c>
       <c r="P13" t="n">
-        <v>149.8249136305788</v>
+        <v>149.8249136305787</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.13037242701479</v>
+        <v>27.13037242701467</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>187.6604060283943</v>
       </c>
       <c r="K14" t="n">
-        <v>403.2187514297309</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L14" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M14" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N14" t="n">
-        <v>627.5790040007521</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O14" t="n">
-        <v>546.9609788157248</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P14" t="n">
-        <v>428.7636087999077</v>
+        <v>428.7636087999078</v>
       </c>
       <c r="Q14" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>118.1395757805499</v>
+        <v>111.2381661835154</v>
       </c>
       <c r="K15" t="n">
         <v>329.8191935338484</v>
       </c>
       <c r="L15" t="n">
-        <v>134.6669053332828</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M15" t="n">
-        <v>642.4073825395678</v>
+        <v>176.702318789568</v>
       </c>
       <c r="N15" t="n">
-        <v>675.2756645009049</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O15" t="n">
-        <v>550.6587635209717</v>
+        <v>156.7964442442422</v>
       </c>
       <c r="P15" t="n">
-        <v>106.3146201840261</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q15" t="n">
-        <v>53.55668643766251</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.180450788734685</v>
+        <v>6.180450788734632</v>
       </c>
       <c r="K16" t="n">
         <v>125.2514376993491</v>
@@ -35823,7 +35823,7 @@
         <v>149.8249136305787</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.13037242701477</v>
+        <v>27.13037242701472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>187.6604060283943</v>
       </c>
       <c r="K17" t="n">
-        <v>403.2187514297309</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L17" t="n">
         <v>553.0331904746306</v>
@@ -35893,13 +35893,13 @@
         <v>632.1302708474109</v>
       </c>
       <c r="N17" t="n">
-        <v>627.5790040007521</v>
+        <v>627.5790040007522</v>
       </c>
       <c r="O17" t="n">
-        <v>546.9609788157248</v>
+        <v>546.960978815725</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7636087999077</v>
+        <v>428.7636087999078</v>
       </c>
       <c r="Q17" t="n">
         <v>243.9818363726264</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>65.35395652126977</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L18" t="n">
-        <v>505.507250636742</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M18" t="n">
-        <v>176.7023187895679</v>
+        <v>176.702318789568</v>
       </c>
       <c r="N18" t="n">
-        <v>538.97717263972</v>
+        <v>675.275664500905</v>
       </c>
       <c r="O18" t="n">
-        <v>550.6587635209717</v>
+        <v>478.111898163607</v>
       </c>
       <c r="P18" t="n">
         <v>424.7773888239633</v>
       </c>
       <c r="Q18" t="n">
-        <v>230.7223651180292</v>
+        <v>20.64507738218015</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.94395593311293</v>
+        <v>63.94395593311297</v>
       </c>
       <c r="K19" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L19" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M19" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N19" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O19" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P19" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139306</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>187.6604060283943</v>
       </c>
       <c r="K20" t="n">
-        <v>403.2187514297309</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L20" t="n">
         <v>553.0331904746306</v>
@@ -36130,13 +36130,13 @@
         <v>632.1302708474109</v>
       </c>
       <c r="N20" t="n">
-        <v>627.5790040007521</v>
+        <v>627.5790040007522</v>
       </c>
       <c r="O20" t="n">
-        <v>546.9609788157248</v>
+        <v>546.960978815725</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7636087999077</v>
+        <v>428.7636087999078</v>
       </c>
       <c r="Q20" t="n">
         <v>243.9818363726264</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>65.35395652126977</v>
+        <v>65.35395652126979</v>
       </c>
       <c r="L21" t="n">
-        <v>369.2087587755572</v>
+        <v>134.6669053332829</v>
       </c>
       <c r="M21" t="n">
-        <v>176.7023187895679</v>
+        <v>642.4073825395678</v>
       </c>
       <c r="N21" t="n">
-        <v>675.2756645009049</v>
+        <v>675.275664500905</v>
       </c>
       <c r="O21" t="n">
         <v>550.6587635209717</v>
@@ -36218,7 +36218,7 @@
         <v>424.7773888239633</v>
       </c>
       <c r="Q21" t="n">
-        <v>230.7223651180292</v>
+        <v>117.6987305908535</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.94395593311299</v>
+        <v>63.94395593311295</v>
       </c>
       <c r="K22" t="n">
         <v>183.0149428437274</v>
@@ -36288,16 +36288,16 @@
         <v>287.6707373240906</v>
       </c>
       <c r="N22" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O22" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P22" t="n">
-        <v>207.5884187749571</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.89387757139308</v>
+        <v>84.89387757139303</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>187.6604060283943</v>
       </c>
       <c r="K23" t="n">
-        <v>403.2187514297309</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L23" t="n">
         <v>553.0331904746306</v>
@@ -36367,13 +36367,13 @@
         <v>632.1302708474109</v>
       </c>
       <c r="N23" t="n">
-        <v>627.5790040007521</v>
+        <v>627.5790040007522</v>
       </c>
       <c r="O23" t="n">
-        <v>546.9609788157248</v>
+        <v>546.960978815725</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7636087999077</v>
+        <v>428.7636087999078</v>
       </c>
       <c r="Q23" t="n">
         <v>243.9818363726264</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126979</v>
       </c>
       <c r="L24" t="n">
-        <v>134.6669053332828</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M24" t="n">
-        <v>642.4073825395678</v>
+        <v>176.702318789568</v>
       </c>
       <c r="N24" t="n">
-        <v>675.2756645009049</v>
+        <v>657.1167484202696</v>
       </c>
       <c r="O24" t="n">
-        <v>156.7964442442421</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P24" t="n">
-        <v>323.0112607803892</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q24" t="n">
         <v>230.7223651180292</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.94395593311299</v>
+        <v>63.94395593311287</v>
       </c>
       <c r="K25" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L25" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M25" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N25" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O25" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P25" t="n">
-        <v>207.5884187749571</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.89387757139308</v>
+        <v>84.89387757139296</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>187.6604060283943</v>
       </c>
       <c r="K26" t="n">
-        <v>403.2187514297309</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L26" t="n">
         <v>553.0331904746306</v>
@@ -36604,13 +36604,13 @@
         <v>632.1302708474109</v>
       </c>
       <c r="N26" t="n">
-        <v>627.5790040007521</v>
+        <v>627.5790040007522</v>
       </c>
       <c r="O26" t="n">
-        <v>546.9609788157248</v>
+        <v>546.960978815725</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7636087999077</v>
+        <v>428.7636087999078</v>
       </c>
       <c r="Q26" t="n">
         <v>243.9818363726264</v>
@@ -36674,22 +36674,22 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K27" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126979</v>
       </c>
       <c r="L27" t="n">
-        <v>351.3635459296456</v>
+        <v>134.6669053332829</v>
       </c>
       <c r="M27" t="n">
         <v>642.4073825395678</v>
       </c>
       <c r="N27" t="n">
-        <v>675.2756645009049</v>
+        <v>675.275664500905</v>
       </c>
       <c r="O27" t="n">
-        <v>156.7964442442421</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P27" t="n">
-        <v>106.3146201840261</v>
+        <v>193.6141785162377</v>
       </c>
       <c r="Q27" t="n">
         <v>230.7223651180292</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.94395593311289</v>
+        <v>63.94395593311295</v>
       </c>
       <c r="K28" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L28" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M28" t="n">
-        <v>287.6707373240905</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N28" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O28" t="n">
-        <v>256.416081588182</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P28" t="n">
-        <v>207.5884187749569</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.89387757139298</v>
+        <v>84.89387757139303</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K30" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126979</v>
       </c>
       <c r="L30" t="n">
-        <v>505.5072506367421</v>
+        <v>382.8460693691105</v>
       </c>
       <c r="M30" t="n">
-        <v>255.2809642593578</v>
+        <v>642.4073825395678</v>
       </c>
       <c r="N30" t="n">
         <v>195.9332901573515</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.94395593311282</v>
+        <v>63.94395593311287</v>
       </c>
       <c r="K31" t="n">
-        <v>183.0149428437272</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L31" t="n">
-        <v>267.1509263035527</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M31" t="n">
         <v>287.6707373240905</v>
@@ -37008,7 +37008,7 @@
         <v>207.5884187749569</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.89387757139291</v>
+        <v>84.89387757139296</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L33" t="n">
-        <v>351.3635459296451</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M33" t="n">
         <v>642.4073825395678</v>
       </c>
       <c r="N33" t="n">
-        <v>675.275664500905</v>
+        <v>202.6691911538711</v>
       </c>
       <c r="O33" t="n">
         <v>156.7964442442421</v>
       </c>
       <c r="P33" t="n">
-        <v>106.3146201840261</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q33" t="n">
         <v>230.7223651180292</v>
@@ -37385,10 +37385,10 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K36" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126979</v>
       </c>
       <c r="L36" t="n">
-        <v>351.3635459296451</v>
+        <v>297.3660143022867</v>
       </c>
       <c r="M36" t="n">
         <v>642.4073825395678</v>
@@ -37400,7 +37400,7 @@
         <v>156.7964442442421</v>
       </c>
       <c r="P36" t="n">
-        <v>106.3146201840261</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q36" t="n">
         <v>230.7223651180292</v>
@@ -37622,10 +37622,10 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K39" t="n">
-        <v>329.8191935338484</v>
+        <v>152.6535148534811</v>
       </c>
       <c r="L39" t="n">
-        <v>351.3635459296451</v>
+        <v>134.6669053332829</v>
       </c>
       <c r="M39" t="n">
         <v>642.4073825395678</v>
@@ -37634,7 +37634,7 @@
         <v>675.275664500905</v>
       </c>
       <c r="O39" t="n">
-        <v>156.7964442442421</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P39" t="n">
         <v>106.3146201840261</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.94395593311287</v>
+        <v>63.94395593311295</v>
       </c>
       <c r="K40" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L40" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M40" t="n">
-        <v>287.6707373240905</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N40" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O40" t="n">
-        <v>256.416081588182</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P40" t="n">
-        <v>207.5884187749569</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.89387757139296</v>
+        <v>84.89387757139303</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126979</v>
       </c>
       <c r="L42" t="n">
-        <v>351.3635459296451</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M42" t="n">
         <v>642.4073825395678</v>
@@ -37871,13 +37871,13 @@
         <v>675.275664500905</v>
       </c>
       <c r="O42" t="n">
-        <v>156.7964442442421</v>
+        <v>276.8720714261858</v>
       </c>
       <c r="P42" t="n">
-        <v>106.3146201840261</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q42" t="n">
-        <v>230.7223651180292</v>
+        <v>20.64507738218015</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.21619221024521</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126979</v>
       </c>
       <c r="L45" t="n">
-        <v>134.6669053332829</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M45" t="n">
-        <v>176.702318789568</v>
+        <v>642.4073825395678</v>
       </c>
       <c r="N45" t="n">
-        <v>675.275664500905</v>
+        <v>195.9332901573515</v>
       </c>
       <c r="O45" t="n">
         <v>550.6587635209717</v>
@@ -38114,7 +38114,7 @@
         <v>424.7773888239633</v>
       </c>
       <c r="Q45" t="n">
-        <v>230.7223651180292</v>
+        <v>108.0611838503978</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311287</v>
       </c>
       <c r="K46" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L46" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M46" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N46" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O46" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P46" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139296</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
